--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{910E9067-9C95-684E-9025-46F95313ADD4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{910E9067-9C95-684E-9025-46F95313ADD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -303,76 +303,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.92687269490016544</c:v>
+                  <c:v>0.96936153389998014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.901878914402529</c:v>
+                  <c:v>1.9631705364291432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6405177265035</c:v>
+                  <c:v>1.6663268773360516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3221284052928506</c:v>
+                  <c:v>2.3641330548005208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5424733996162572</c:v>
+                  <c:v>2.6015915119363395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1992976294925395</c:v>
+                  <c:v>3.1913232104052249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2955007913255612</c:v>
+                  <c:v>3.4478556362864961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7422336328722525</c:v>
+                  <c:v>3.8044996121024051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7820446289471152</c:v>
+                  <c:v>3.9590958019269133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.994519046325006</c:v>
+                  <c:v>4.106056377348887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2054241200352154</c:v>
+                  <c:v>4.1950384944396921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3983101991418279</c:v>
+                  <c:v>4.3219741480484073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5281143212177701</c:v>
+                  <c:v>4.4853658536722119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2971698113080867</c:v>
+                  <c:v>4.4703737465815863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5493133583021228</c:v>
+                  <c:v>4.2336690647603845</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7931601446734851</c:v>
+                  <c:v>4.0218698742592176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6287710384101981</c:v>
+                  <c:v>4.3055311676909565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1681441235225396</c:v>
+                  <c:v>4.7063339731285989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8700300701620884</c:v>
+                  <c:v>4.6206030150898894</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8089739360105881</c:v>
+                  <c:v>4.4140414041404137</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.9494057724940754</c:v>
+                  <c:v>4.7093469910522057</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9815447710201584</c:v>
+                  <c:v>4.8925839707512226</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.9798428424991537</c:v>
+                  <c:v>4.9302949061645673</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9460468272836602</c:v>
+                  <c:v>4.922047507529248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,24 +1607,24 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C2">
         <v>4.8949999999999996</v>
       </c>
       <c r="D2">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B2:D2)</f>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F2">
-        <v>5.242</v>
+        <v>5.0590000000000002</v>
       </c>
       <c r="G2">
         <f>E2/F2</f>
-        <v>0.92687269490016544</v>
+        <v>0.96936153389998014</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1632,24 +1632,24 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C3">
         <v>4.8949999999999996</v>
       </c>
       <c r="D3">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" si="0">AVERAGE(B3:D3)</f>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F3">
-        <v>2.5546666666700002</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" si="1">E3/F3</f>
-        <v>1.901878914402529</v>
+        <v>1.9631705364291432</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,24 +1657,24 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C4">
         <v>4.8949999999999996</v>
       </c>
       <c r="D4">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F4">
-        <v>2.9616666666699998</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.6405177265035</v>
+        <v>1.6663268773360516</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1682,24 +1682,24 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C5">
         <v>4.8949999999999996</v>
       </c>
       <c r="D5">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F5">
-        <v>2.09233333333</v>
+        <v>2.0743333333299998</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>2.3221284052928506</v>
+        <v>2.3641330548005208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1707,24 +1707,24 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C6">
         <v>4.8949999999999996</v>
       </c>
       <c r="D6">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F6">
-        <v>1.911</v>
+        <v>1.885</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2.5424733996162572</v>
+        <v>2.6015915119363395</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1732,24 +1732,24 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C7">
         <v>4.8949999999999996</v>
       </c>
       <c r="D7">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F7">
-        <v>1.5186666666699999</v>
+        <v>1.53666666667</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>3.1992976294925395</v>
+        <v>3.1913232104052249</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,24 +1757,24 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C8">
         <v>4.8949999999999996</v>
       </c>
       <c r="D8">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F8">
-        <v>1.4743333333299999</v>
+        <v>1.4223333333299999</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>3.2955007913255612</v>
+        <v>3.4478556362864961</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1782,24 +1782,24 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C9">
         <v>4.8949999999999996</v>
       </c>
       <c r="D9">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F9">
-        <v>1.29833333333</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>3.7422336328722525</v>
+        <v>3.8044996121024051</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,24 +1807,24 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C10">
         <v>4.8949999999999996</v>
       </c>
       <c r="D10">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F10">
-        <v>1.28466666667</v>
+        <v>1.2386666666699999</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3.7820446289471152</v>
+        <v>3.9590958019269133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1832,24 +1832,24 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C11">
         <v>4.8949999999999996</v>
       </c>
       <c r="D11">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F11">
-        <v>1.2163333333299999</v>
+        <v>1.1943333333299999</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>3.994519046325006</v>
+        <v>4.106056377348887</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1857,24 +1857,24 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C12">
         <v>4.8949999999999996</v>
       </c>
       <c r="D12">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F12">
-        <v>1.15533333333</v>
+        <v>1.169</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>4.2054241200352154</v>
+        <v>4.1950384944396921</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,24 +1882,24 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C13">
         <v>4.8949999999999996</v>
       </c>
       <c r="D13">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F13">
-        <v>1.10466666667</v>
+        <v>1.13466666667</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.3983101991418279</v>
+        <v>4.3219741480484073</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1907,24 +1907,24 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C14">
         <v>4.8949999999999996</v>
       </c>
       <c r="D14">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F14">
-        <v>1.073</v>
+        <v>1.0933333333299999</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>4.5281143212177701</v>
+        <v>4.4853658536722119</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1932,24 +1932,24 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C15">
         <v>4.8949999999999996</v>
       </c>
       <c r="D15">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F15">
-        <v>1.13066666667</v>
+        <v>1.097</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>4.2971698113080867</v>
+        <v>4.4703737465815863</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1957,24 +1957,24 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C16">
         <v>4.8949999999999996</v>
       </c>
       <c r="D16">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F16">
-        <v>1.0680000000000001</v>
+        <v>1.1583333333300001</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4.5493133583021228</v>
+        <v>4.2336690647603845</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1982,24 +1982,24 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C17">
         <v>4.8949999999999996</v>
       </c>
       <c r="D17">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F17">
-        <v>1.01366666667</v>
+        <v>1.21933333333</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>4.7931601446734851</v>
+        <v>4.0218698742592176</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,24 +2007,24 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C18">
         <v>4.8949999999999996</v>
       </c>
       <c r="D18">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F18">
-        <v>1.0496666666700001</v>
+        <v>1.139</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>4.6287710384101981</v>
+        <v>4.3055311676909565</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2032,24 +2032,24 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C19">
         <v>4.8949999999999996</v>
       </c>
       <c r="D19">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F19">
-        <v>1.16566666667</v>
+        <v>1.042</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>4.1681441235225396</v>
+        <v>4.7063339731285989</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2057,24 +2057,24 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C20">
         <v>4.8949999999999996</v>
       </c>
       <c r="D20">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F20">
-        <v>0.99766666666699999</v>
+        <v>1.0613333333299999</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>4.8700300701620884</v>
+        <v>4.6206030150898894</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,24 +2082,24 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C21">
         <v>4.8949999999999996</v>
       </c>
       <c r="D21">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F21">
-        <v>1.01033333333</v>
+        <v>1.111</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>4.8089739360105881</v>
+        <v>4.4140414041404137</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,24 +2107,24 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C22">
         <v>4.8949999999999996</v>
       </c>
       <c r="D22">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F22">
-        <v>0.98166666666699998</v>
+        <v>1.0413333333300001</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>4.9494057724940754</v>
+        <v>4.7093469910522057</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2132,24 +2132,24 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C23">
         <v>4.8949999999999996</v>
       </c>
       <c r="D23">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F23">
-        <v>0.97533333333299999</v>
+        <v>1.00233333333</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>4.9815447710201584</v>
+        <v>4.8925839707512226</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2157,24 +2157,24 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C24">
         <v>4.8949999999999996</v>
       </c>
       <c r="D24">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F24">
-        <v>0.97566666666699997</v>
+        <v>0.99466666666699999</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>4.9798428424991537</v>
+        <v>4.9302949061645673</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2182,28 +2182,29 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.8840000000000003</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="C25">
         <v>4.8949999999999996</v>
       </c>
       <c r="D25">
-        <v>4.7969999999999997</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.8586666666666671</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="F25">
-        <v>0.98233333333299999</v>
+        <v>0.996333333333</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>4.9460468272836602</v>
+        <v>4.922047507529248</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>